--- a/Stability Metric.xlsx
+++ b/Stability Metric.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klaus/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klaus/GitHub/LEANres/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -783,7 +783,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7541,11 +7540,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2142691408"/>
-        <c:axId val="-2113782016"/>
+        <c:axId val="-2134302352"/>
+        <c:axId val="-2109355184"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="2142691408"/>
+        <c:axId val="-2134302352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7588,14 +7587,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2113782016"/>
+        <c:crossAx val="-2109355184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2113782016"/>
+        <c:axId val="-2109355184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7646,7 +7645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142691408"/>
+        <c:crossAx val="-2134302352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7660,7 +7659,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7767,7 +7765,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8495,11 +8492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2100452144"/>
-        <c:axId val="2143596656"/>
+        <c:axId val="-2127984912"/>
+        <c:axId val="-2107671408"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="-2100452144"/>
+        <c:axId val="-2127984912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8542,14 +8539,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143596656"/>
+        <c:crossAx val="-2107671408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2143596656"/>
+        <c:axId val="-2107671408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8600,7 +8597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100452144"/>
+        <c:crossAx val="-2127984912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8614,7 +8611,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8726,7 +8722,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10570,11 +10565,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2090656160"/>
-        <c:axId val="-2071698592"/>
+        <c:axId val="-2099791888"/>
+        <c:axId val="-2135681280"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="-2090656160"/>
+        <c:axId val="-2099791888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10617,14 +10612,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071698592"/>
+        <c:crossAx val="-2135681280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2071698592"/>
+        <c:axId val="-2135681280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10674,7 +10669,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090656160"/>
+        <c:crossAx val="-2099791888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10688,7 +10683,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10800,7 +10794,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14282,11 +14275,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2090212320"/>
-        <c:axId val="-2090391376"/>
+        <c:axId val="-2126718000"/>
+        <c:axId val="-2102103504"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="-2090212320"/>
+        <c:axId val="-2126718000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14329,14 +14322,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090391376"/>
+        <c:crossAx val="-2102103504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2090391376"/>
+        <c:axId val="-2102103504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14387,7 +14380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090212320"/>
+        <c:crossAx val="-2126718000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14401,7 +14394,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14483,7 +14475,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15013,11 +15004,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2109331296"/>
-        <c:axId val="-2071220800"/>
+        <c:axId val="-2122234864"/>
+        <c:axId val="-2128054272"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="2109331296"/>
+        <c:axId val="-2122234864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15060,14 +15051,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071220800"/>
+        <c:crossAx val="-2128054272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2071220800"/>
+        <c:axId val="-2128054272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15118,7 +15109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109331296"/>
+        <c:crossAx val="-2122234864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15132,7 +15123,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18072,11 +18062,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1"/>
-            <a:t>What is this spreadsheet</a:t>
+            <a:t>What is this </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t> for?</a:t>
+            <a:t>for?</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -21444,7 +21434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -21478,7 +21468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -21507,9 +21497,7 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1">
-        <v>41085</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>41085</v>
       </c>

--- a/Stability Metric.xlsx
+++ b/Stability Metric.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="144">
   <si>
     <t>Options</t>
   </si>
@@ -426,21 +426,6 @@
     <t>wip</t>
   </si>
   <si>
-    <t>ar</t>
-  </si>
-  <si>
-    <t>dep</t>
-  </si>
-  <si>
-    <t>avg arrival</t>
-  </si>
-  <si>
-    <t>avg departure</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
     <t>ID-109</t>
   </si>
   <si>
@@ -470,13 +455,28 @@
   <si>
     <t>First week</t>
   </si>
+  <si>
+    <t>wip limit</t>
+  </si>
+  <si>
+    <t>weekly avg arrival rate</t>
+  </si>
+  <si>
+    <t>weekly avg departure rate</t>
+  </si>
+  <si>
+    <t>arrival - departure</t>
+  </si>
+  <si>
+    <t>flow dept</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -563,7 +563,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -583,7 +583,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -591,21 +594,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="White" xfId="3"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="37">
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -614,59 +617,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
@@ -888,6 +842,64 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -7713,11 +7725,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2026536976"/>
-        <c:axId val="-2067060576"/>
+        <c:axId val="-2145025520"/>
+        <c:axId val="-2145029168"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="-2026536976"/>
+        <c:axId val="-2145025520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7760,14 +7772,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067060576"/>
+        <c:crossAx val="-2145029168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2067060576"/>
+        <c:axId val="-2145029168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7818,7 +7830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2026536976"/>
+        <c:crossAx val="-2145025520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8667,11 +8679,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2098133344"/>
-        <c:axId val="-2052203520"/>
+        <c:axId val="-2145100928"/>
+        <c:axId val="-2145104336"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="-2098133344"/>
+        <c:axId val="-2145100928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8714,14 +8726,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2052203520"/>
+        <c:crossAx val="-2145104336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2052203520"/>
+        <c:axId val="-2145104336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8772,7 +8784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098133344"/>
+        <c:crossAx val="-2145100928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10742,11 +10754,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2053304656"/>
-        <c:axId val="-2099016288"/>
+        <c:axId val="-2143156752"/>
+        <c:axId val="-2143160160"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="-2053304656"/>
+        <c:axId val="-2143156752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10789,14 +10801,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099016288"/>
+        <c:crossAx val="-2143160160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2099016288"/>
+        <c:axId val="-2143160160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10847,7 +10859,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2053304656"/>
+        <c:crossAx val="-2143156752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14455,11 +14467,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2063776448"/>
-        <c:axId val="-2035269712"/>
+        <c:axId val="-2145133776"/>
+        <c:axId val="-2145137184"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="-2063776448"/>
+        <c:axId val="-2145133776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14502,14 +14514,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2035269712"/>
+        <c:crossAx val="-2145137184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2035269712"/>
+        <c:axId val="-2145137184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14560,7 +14572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063776448"/>
+        <c:crossAx val="-2145133776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15186,11 +15198,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2121459392"/>
-        <c:axId val="-2036464576"/>
+        <c:axId val="-2145211344"/>
+        <c:axId val="-2145214752"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="-2121459392"/>
+        <c:axId val="-2145211344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15233,14 +15245,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2036464576"/>
+        <c:crossAx val="-2145214752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2036464576"/>
+        <c:axId val="-2145214752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15291,7 +15303,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121459392"/>
+        <c:crossAx val="-2145211344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15389,38 +15401,87 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'ALT-STAB'!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>avg arrival</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>arrival-departure</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'ALT-STAB'!$G$3:$G$26</c:f>
+              <c:f>'ALT-STAB'!$H$3:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -15501,97 +15562,106 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ALT-STAB'!$L$3:$L$26</c:f>
+              <c:f>'ALT-STAB'!$N$3:$N$26</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.875</c:v>
+                  <c:v>0.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.75</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.625</c:v>
+                  <c:v>1.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.5</c:v>
+                  <c:v>-0.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.375</c:v>
+                  <c:v>0.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.25</c:v>
+                  <c:v>0.857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.125</c:v>
+                  <c:v>0.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.0</c:v>
+                  <c:v>-0.714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.875</c:v>
+                  <c:v>-0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.75</c:v>
+                  <c:v>0.571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53.625</c:v>
+                  <c:v>-1.428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58.5</c:v>
+                  <c:v>0.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63.375</c:v>
+                  <c:v>-0.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.25</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>73.125</c:v>
+                  <c:v>0.714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>78.0</c:v>
+                  <c:v>-0.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>82.875</c:v>
+                  <c:v>-1.142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87.75</c:v>
+                  <c:v>0.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>92.625</c:v>
+                  <c:v>-0.571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>97.5</c:v>
+                  <c:v>-0.428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>102.375</c:v>
+                  <c:v>-1.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>107.25</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>112.125</c:v>
+                  <c:v>-0.333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="-2074494240"/>
+        <c:axId val="-2058123248"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'ALT-STAB'!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>avg departure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>weekly flow dept</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -15605,164 +15675,155 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="t" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
             <c:numRef>
-              <c:f>'ALT-STAB'!$G$3:$G$26</c:f>
+              <c:f>'ALT-STAB'!$O$3:$O$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,#00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>26.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.0</c:v>
+                  <c:v>0.942857142857143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.0</c:v>
+                  <c:v>1.942857142857143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.0</c:v>
+                  <c:v>3.085714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.0</c:v>
+                  <c:v>2.942857142857143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.0</c:v>
+                  <c:v>3.514285714285714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>4.371428571428571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.0</c:v>
+                  <c:v>4.514285714285714</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.0</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.0</c:v>
+                  <c:v>3.514285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.0</c:v>
+                  <c:v>4.085714285714285</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37.0</c:v>
+                  <c:v>2.657142857142856</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.0</c:v>
+                  <c:v>2.799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.0</c:v>
+                  <c:v>2.657142857142856</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.0</c:v>
+                  <c:v>2.942857142857142</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41.0</c:v>
+                  <c:v>3.657142857142856</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42.0</c:v>
+                  <c:v>3.514285714285714</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.0</c:v>
+                  <c:v>2.371428571428571</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44.0</c:v>
+                  <c:v>2.942857142857142</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45.0</c:v>
+                  <c:v>2.371428571428571</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46.0</c:v>
+                  <c:v>1.942857142857142</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>47.0</c:v>
+                  <c:v>0.371428571428571</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>48.0</c:v>
+                  <c:v>0.371428571428571</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ALT-STAB'!$M$2:$M$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.833333333333332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.33333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.16666666666666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33.83333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38.66666666666666</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>48.33333333333334</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>53.16666666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>58.00000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>62.83333333333334</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>67.66666666666667</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>72.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>77.33333333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>82.16666666666665</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>86.99999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>91.83333333333331</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>96.66666666666664</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>101.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>106.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>111.1666666666666</c:v>
+                  <c:v>0.0380952380952372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15770,37 +15831,34 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071277632"/>
-        <c:axId val="-2080084464"/>
+        <c:axId val="-2074494240"/>
+        <c:axId val="-2058123248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071277632"/>
+        <c:axId val="-2074494240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -15816,6 +15874,7 @@
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
+                    <a:alpha val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -15826,7 +15885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080084464"/>
+        <c:crossAx val="-2058123248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15834,27 +15893,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2080084464"/>
+        <c:axId val="-2058123248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -15884,7 +15929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071277632"/>
+        <c:crossAx val="-2074494240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15897,7 +15942,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -15966,399 +16011,6 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'ALT-STAB'!$G$3:$G$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>49.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ALT-STAB'!$N$3:$N$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.041666666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0833333333333339</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.166666666666668</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.208333333333336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.250000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.291666666666671</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.416666666666664</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.458333333333329</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.541666666666657</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.583333333333329</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.708333333333343</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.750000000000014</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.791666666666686</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.833333333333357</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.875000000000028</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.9166666666667</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.958333333333371</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-2068796464"/>
-        <c:axId val="-2100463632"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2068796464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2100463632"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2100463632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2068796464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-AT"/>
@@ -16466,10 +16118,14 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>actual WIP</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
                   <a:shade val="95000"/>
                   <a:satMod val="105000"/>
                 </a:schemeClr>
@@ -16716,10 +16372,114 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>WIP limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ALT-WIP'!$L$3:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -16727,17 +16487,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2037378656"/>
-        <c:axId val="-2033984432"/>
+        <c:axId val="-2141711344"/>
+        <c:axId val="-2141707632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2037378656"/>
+        <c:axId val="-2141711344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>week</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> number</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -16805,7 +16595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2033984432"/>
+        <c:crossAx val="-2141707632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16813,13 +16603,38 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2033984432"/>
+        <c:axId val="-2141707632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>WIP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -16854,7 +16669,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2037378656"/>
+        <c:crossAx val="-2141711344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16903,7 +16718,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-AT"/>
@@ -17219,11 +17034,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="-2071717856"/>
-        <c:axId val="-2071832096"/>
+        <c:axId val="2115285088"/>
+        <c:axId val="2115234096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2071717856"/>
+        <c:axId val="2115285088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17267,7 +17082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071832096"/>
+        <c:crossAx val="2115234096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17275,7 +17090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071832096"/>
+        <c:axId val="2115234096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17284,7 +17099,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071717856"/>
+        <c:crossAx val="2115285088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17593,52 +17408,12 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -20284,7 +20059,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -20392,11 +20167,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -20407,11 +20177,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -20443,9 +20208,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -20800,511 +20562,6 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21814,7 +21071,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25219,6 +24476,78 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangular Callout 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="406400"/>
+          <a:ext cx="3441700" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -71755"/>
+            <a:gd name="adj2" fmla="val -6607"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:softEdge rad="0"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Enter your timestamp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> data here.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>681566</xdr:colOff>
       <xdr:row>23</xdr:row>
@@ -25348,7 +24677,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -25383,24 +24712,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>958850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -25415,53 +24744,23 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25483,15 +24782,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25514,23 +24813,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeStamps" displayName="TimeStamps" ref="A2:D119" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeStamps" displayName="TimeStamps" ref="A2:D119" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="A2:D119"/>
   <tableColumns count="4">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Options" dataDxfId="9"/>
-    <tableColumn id="3" name="Committed" dataDxfId="8"/>
-    <tableColumn id="4" name="Done" dataDxfId="7"/>
+    <tableColumn id="2" name="Options" dataDxfId="35"/>
+    <tableColumn id="3" name="Committed" dataDxfId="34"/>
+    <tableColumn id="4" name="Done" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table2579" displayName="Table2579" ref="A1:D185" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table2579" displayName="Table2579" ref="A1:D185" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:D185"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Date" dataDxfId="18"/>
+    <tableColumn id="1" name="Date" dataDxfId="15"/>
     <tableColumn id="2" name="Options">
       <calculatedColumnFormula>COUNTIFS(TimeStamps[Options],"&lt;="&amp;'TS-Calc 6 month'!A2,TimeStamps[Committed],"&gt;"&amp;'TS-Calc 6 month'!A2)</calculatedColumnFormula>
     </tableColumn>
@@ -25546,10 +24845,10 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table36810" displayName="Table36810" ref="F1:I185" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table36810" displayName="Table36810" ref="F1:I185" headerRowDxfId="14">
   <autoFilter ref="F1:I185"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" dataDxfId="16">
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" dataDxfId="13">
       <calculatedColumnFormula>Table2579[[#This Row],[Date]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Done">
@@ -25567,10 +24866,10 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="YearData" displayName="YearData" ref="A1:D367" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="YearData" displayName="YearData" ref="A1:D367" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:D367"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Date" dataDxfId="14"/>
+    <tableColumn id="1" name="Date" dataDxfId="11"/>
     <tableColumn id="2" name="Options">
       <calculatedColumnFormula>COUNTIFS(TimeStamps[Options],"&lt;="&amp;'TS-Calc 12 month'!A2,TimeStamps[Committed],"&gt;"&amp;'TS-Calc 12 month'!A2)</calculatedColumnFormula>
     </tableColumn>
@@ -25586,10 +24885,10 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="YearCFD" displayName="YearCFD" ref="F1:I367" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="YearCFD" displayName="YearCFD" ref="F1:I367" headerRowDxfId="10">
   <autoFilter ref="F1:I367"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" dataDxfId="12">
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" dataDxfId="9">
       <calculatedColumnFormula>YearData[[#This Row],[Date]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Done">
@@ -25607,14 +24906,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table111115" displayName="Table111115" ref="B2:E165" totalsRowShown="0">
-  <autoFilter ref="B2:E165"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Date" dataDxfId="11">
-      <calculatedColumnFormula>N3</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table111115" displayName="Table111115" ref="B2:F165" totalsRowShown="0">
+  <autoFilter ref="B2:F165"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Date" dataDxfId="32">
+      <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Week" dataDxfId="10">
+    <tableColumn id="4" name="Week" dataDxfId="31">
       <calculatedColumnFormula>WEEKNUM(Table111115[[#This Row],[Date]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Options" dataDxfId="7">
+      <calculatedColumnFormula>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Committed">
       <calculatedColumnFormula>COUNTIF(TimeStamps[Committed],B3)</calculatedColumnFormula>
@@ -25628,30 +24930,30 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table121416" displayName="Table121416" ref="G2:N26" totalsRowShown="0">
-  <autoFilter ref="G2:N26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table121416" displayName="Table121416" ref="H2:O26" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="H2:O26"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Week"/>
-    <tableColumn id="2" name="Com/week" dataDxfId="6">
+    <tableColumn id="9" name="Options" dataDxfId="6">
+      <calculatedColumnFormula>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Com/week" dataDxfId="30">
       <calculatedColumnFormula>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Done/week" dataDxfId="5">
       <calculatedColumnFormula>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="ar" dataDxfId="4">
-      <calculatedColumnFormula>IFERROR(AVERAGE(Table121416[Com/week]),0)</calculatedColumnFormula>
+    <tableColumn id="4" name="weekly avg arrival rate" dataDxfId="4">
+      <calculatedColumnFormula>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="dep" dataDxfId="3">
-      <calculatedColumnFormula>AVERAGE(Table121416[Done/week])</calculatedColumnFormula>
+    <tableColumn id="5" name="weekly avg departure rate" dataDxfId="2">
+      <calculatedColumnFormula>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="avg arrival" dataDxfId="2">
-      <calculatedColumnFormula>L2+Table121416[[#This Row],[ar]]</calculatedColumnFormula>
+    <tableColumn id="10" name="arrival - departure" dataDxfId="1">
+      <calculatedColumnFormula>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="avg departure" dataDxfId="1">
-      <calculatedColumnFormula>M2+Table121416[[#This Row],[dep]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="diff" dataDxfId="0">
-      <calculatedColumnFormula>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</calculatedColumnFormula>
+    <tableColumn id="11" name="flow dept" dataDxfId="0">
+      <calculatedColumnFormula>O2+Table121416[[#This Row],[arrival - departure]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -25662,10 +24964,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1111" displayName="Table1111" ref="B2:E165" totalsRowShown="0">
   <autoFilter ref="B2:E165"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Date" dataDxfId="32">
-      <calculatedColumnFormula>N3</calculatedColumnFormula>
+    <tableColumn id="1" name="Date" dataDxfId="29">
+      <calculatedColumnFormula>O3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Week" dataDxfId="31">
+    <tableColumn id="4" name="Week" dataDxfId="28">
       <calculatedColumnFormula>WEEKNUM(Table1111[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Committed">
@@ -25680,32 +24982,33 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1214" displayName="Table1214" ref="G2:K27" totalsRowShown="0">
-  <autoFilter ref="G2:K27"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1214" displayName="Table1214" ref="G2:L27" totalsRowShown="0">
+  <autoFilter ref="G2:L27"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Week"/>
-    <tableColumn id="2" name="Com/week" dataDxfId="30">
+    <tableColumn id="2" name="Com/week" dataDxfId="27">
       <calculatedColumnFormula>SUMIF(Table1111[Week],Table1214[[#This Row],[Week]],Table1111[Committed])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Done/week" dataDxfId="29">
+    <tableColumn id="3" name="Done/week" dataDxfId="26">
       <calculatedColumnFormula>SUMIF(Table1111[Week],Table1214[[#This Row],[Week]],Table1111[Done])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="Diff">
       <calculatedColumnFormula>H3-I3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="wip" dataDxfId="28">
-      <calculatedColumnFormula>O2+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</calculatedColumnFormula>
+    <tableColumn id="5" name="wip" dataDxfId="25">
+      <calculatedColumnFormula>P2+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="6" name="wip limit" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="days31DATA" displayName="days31DATA" ref="A1:D32" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="days31DATA" displayName="days31DATA" ref="A1:D32" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="A1:D32"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Date" dataDxfId="26"/>
+    <tableColumn id="1" name="Date" dataDxfId="23"/>
     <tableColumn id="2" name="Options">
       <calculatedColumnFormula>COUNTIFS(TimeStamps[Options],"&lt;="&amp;'TS-Calc 31 days'!A2,TimeStamps[Committed],"&gt;"&amp;'TS-Calc 31 days'!A2)</calculatedColumnFormula>
     </tableColumn>
@@ -25721,10 +25024,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="days31CFD" displayName="days31CFD" ref="F1:I32" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="days31CFD" displayName="days31CFD" ref="F1:I32" headerRowDxfId="22">
   <autoFilter ref="F1:I32"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" dataDxfId="24">
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" dataDxfId="21">
       <calculatedColumnFormula>days31DATA[[#This Row],[Date]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Done">
@@ -25742,10 +25045,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table257" displayName="Table257" ref="A1:D94" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table257" displayName="Table257" ref="A1:D94" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="A1:D94"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Date" dataDxfId="22"/>
+    <tableColumn id="1" name="Date" dataDxfId="19"/>
     <tableColumn id="2" name="Options">
       <calculatedColumnFormula>COUNTIFS(TimeStamps[Options],"&lt;="&amp;'TS-Calc 3 month'!A2,TimeStamps[Committed],"&gt;"&amp;'TS-Calc 3 month'!A2)</calculatedColumnFormula>
     </tableColumn>
@@ -25761,10 +25064,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table368" displayName="Table368" ref="F1:I94" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table368" displayName="Table368" ref="F1:I94" headerRowDxfId="18">
   <autoFilter ref="F1:I94"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Date" totalsRowLabel="Total" dataDxfId="20">
+    <tableColumn id="1" name="Date" totalsRowLabel="Total" dataDxfId="17">
       <calculatedColumnFormula>Table257[[#This Row],[Date]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Done">
@@ -45653,8 +44956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E119"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:A119"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47196,7 +46499,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B111" s="1">
         <v>41085</v>
@@ -47210,7 +46513,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B112" s="1">
         <v>41085</v>
@@ -47224,7 +46527,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B113" s="1">
         <v>41085</v>
@@ -47238,7 +46541,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B114" s="1">
         <v>41085</v>
@@ -47252,7 +46555,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B115" s="1">
         <v>41085</v>
@@ -47266,7 +46569,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B116" s="1">
         <v>41085</v>
@@ -47280,7 +46583,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B117" s="1">
         <v>41085</v>
@@ -47294,7 +46597,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B118" s="1">
         <v>41085</v>
@@ -47308,7 +46611,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B119" s="1">
         <v>41085</v>
@@ -47322,8 +46625,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -47332,8 +46636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47785,22 +47089,23 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B2:Q165"/>
+  <dimension ref="B2:R165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q2"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" ht="32" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -47808,43 +47113,46 @@
         <v>124</v>
       </c>
       <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="J2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" t="s">
-        <v>132</v>
-      </c>
-      <c r="N2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P2" s="12" t="s">
+      <c r="L2" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="12"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="10">
-        <f>Q3</f>
+        <f>R3</f>
         <v>41085</v>
       </c>
       <c r="C3">
@@ -47852,48 +47160,57 @@
         <v>26</v>
       </c>
       <c r="D3">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>117</v>
+      </c>
+      <c r="E3">
         <f>COUNTIF(TimeStamps[Committed],B3)</f>
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f>COUNTIF(TimeStamps[Done],B3)</f>
         <v>0</v>
       </c>
-      <c r="G3">
-        <f>Q5</f>
+      <c r="H3">
+        <f>R5</f>
         <v>26</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>117</v>
+      </c>
+      <c r="J3">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>0</v>
       </c>
-      <c r="J3" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K3" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="L3" s="13">
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M3" s="13">
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>0</v>
+      </c>
       <c r="N3" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="Q3" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <f>MIN(TimeStamps[[Options]:[Done]])</f>
         <v>41085</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="10">
         <f>B3+1</f>
         <v>41086</v>
@@ -47903,54 +47220,58 @@
         <v>26</v>
       </c>
       <c r="D4">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
         <f>COUNTIF(TimeStamps[Committed],B4)</f>
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f>COUNTIF(TimeStamps[Done],B4)</f>
         <v>0</v>
       </c>
-      <c r="G4">
-        <f>G3+1</f>
+      <c r="H4">
+        <f>H3+1</f>
         <v>27</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>0</v>
       </c>
-      <c r="J4" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K4" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L4" s="13">
-        <f>L3+Table121416[[#This Row],[ar]]</f>
-        <v>4.875</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="M4" s="13">
-        <f>M3+Table121416[[#This Row],[dep]]</f>
-        <v>4.833333333333333</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>0</v>
       </c>
       <c r="N4" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>4.1666666666666963E-2</v>
-      </c>
-      <c r="P4" t="s">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="O4" s="13">
+        <f>O3+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="Q4" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <f>MAX(TimeStamps[[Options]:[Done]])</f>
         <v>41249</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="10">
         <f t="shared" ref="B5:B68" si="0">B4+1</f>
         <v>41087</v>
@@ -47960,54 +47281,58 @@
         <v>26</v>
       </c>
       <c r="D5">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
         <f>COUNTIF(TimeStamps[Committed],B5)</f>
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f>COUNTIF(TimeStamps[Done],B5)</f>
         <v>0</v>
       </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G26" si="1">G4+1</f>
+      <c r="H5">
+        <f t="shared" ref="H5:H26" si="1">H4+1</f>
         <v>28</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>9</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>2</v>
       </c>
-      <c r="J5" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K5" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L5" s="13">
-        <f>L4+Table121416[[#This Row],[ar]]</f>
-        <v>9.75</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="M5" s="13">
-        <f>M4+Table121416[[#This Row],[dep]]</f>
-        <v>9.6666666666666661</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N5" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>8.3333333333333925E-2</v>
-      </c>
-      <c r="P5" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5">
-        <f>WEEKNUM(Q3)</f>
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="13">
+        <f>O4+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>1.9428571428571428</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>138</v>
+      </c>
+      <c r="R5">
+        <f>WEEKNUM(R3)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="10">
         <f t="shared" si="0"/>
         <v>41088</v>
@@ -48017,47 +47342,51 @@
         <v>26</v>
       </c>
       <c r="D6">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
         <f>COUNTIF(TimeStamps[Committed],B6)</f>
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f>COUNTIF(TimeStamps[Done],B6)</f>
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>12</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>4</v>
       </c>
-      <c r="J6" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K6" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L6" s="13">
-        <f>L5+Table121416[[#This Row],[ar]]</f>
-        <v>14.625</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="M6" s="13">
-        <f>M5+Table121416[[#This Row],[dep]]</f>
-        <v>14.5</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N6" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="O6" s="13">
+        <f>O5+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>3.0857142857142854</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="10">
         <f t="shared" si="0"/>
         <v>41089</v>
@@ -48067,47 +47396,51 @@
         <v>26</v>
       </c>
       <c r="D7">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
         <f>COUNTIF(TimeStamps[Committed],B7)</f>
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f>COUNTIF(TimeStamps[Done],B7)</f>
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>4</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>5</v>
       </c>
-      <c r="J7" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K7" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L7" s="13">
-        <f>L6+Table121416[[#This Row],[ar]]</f>
-        <v>19.5</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M7" s="13">
-        <f>M6+Table121416[[#This Row],[dep]]</f>
-        <v>19.333333333333332</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N7" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.16666666666666785</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>-0.1428571428571429</v>
+      </c>
+      <c r="O7" s="13">
+        <f>O6+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>2.9428571428571426</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="10">
         <f t="shared" si="0"/>
         <v>41090</v>
@@ -48117,47 +47450,51 @@
         <v>26</v>
       </c>
       <c r="D8">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
         <f>COUNTIF(TimeStamps[Committed],B8)</f>
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f>COUNTIF(TimeStamps[Done],B8)</f>
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="H8">
+      <c r="I8">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>8</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>4</v>
       </c>
-      <c r="J8" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K8" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L8" s="13">
-        <f>L7+Table121416[[#This Row],[ar]]</f>
-        <v>24.375</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="M8" s="13">
-        <f>M7+Table121416[[#This Row],[dep]]</f>
-        <v>24.166666666666664</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N8" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.2083333333333357</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O8" s="13">
+        <f>O7+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>3.5142857142857142</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="10">
         <f t="shared" si="0"/>
         <v>41091</v>
@@ -48167,47 +47504,51 @@
         <v>27</v>
       </c>
       <c r="D9">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
         <f>COUNTIF(TimeStamps[Committed],B9)</f>
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f>COUNTIF(TimeStamps[Done],B9)</f>
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="H9">
+      <c r="I9">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>6</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>0</v>
       </c>
-      <c r="J9" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K9" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L9" s="13">
-        <f>L8+Table121416[[#This Row],[ar]]</f>
-        <v>29.25</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M9" s="13">
-        <f>M8+Table121416[[#This Row],[dep]]</f>
-        <v>28.999999999999996</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>0</v>
       </c>
       <c r="N9" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.25000000000000355</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="O9" s="13">
+        <f>O8+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>4.371428571428571</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="10">
         <f t="shared" si="0"/>
         <v>41092</v>
@@ -48217,47 +47558,51 @@
         <v>27</v>
       </c>
       <c r="D10">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
         <f>COUNTIF(TimeStamps[Committed],B10)</f>
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f>COUNTIF(TimeStamps[Done],B10)</f>
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="H10">
+      <c r="I10">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>5</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>4</v>
       </c>
-      <c r="J10" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K10" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L10" s="13">
-        <f>L9+Table121416[[#This Row],[ar]]</f>
-        <v>34.125</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="M10" s="13">
-        <f>M9+Table121416[[#This Row],[dep]]</f>
-        <v>33.833333333333329</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N10" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.2916666666666714</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="O10" s="13">
+        <f>O9+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>4.5142857142857142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="10">
         <f t="shared" si="0"/>
         <v>41093</v>
@@ -48267,47 +47612,51 @@
         <v>27</v>
       </c>
       <c r="D11">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
         <f>COUNTIF(TimeStamps[Committed],B11)</f>
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f>COUNTIF(TimeStamps[Done],B11)</f>
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="H11">
+      <c r="I11">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>3</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>8</v>
       </c>
-      <c r="J11" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K11" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L11" s="13">
-        <f>L10+Table121416[[#This Row],[ar]]</f>
-        <v>39</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="M11" s="13">
-        <f>M10+Table121416[[#This Row],[dep]]</f>
-        <v>38.666666666666664</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="N11" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.3333333333333357</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>-0.71428571428571419</v>
+      </c>
+      <c r="O11" s="13">
+        <f>O10+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="10">
         <f t="shared" si="0"/>
         <v>41094</v>
@@ -48317,47 +47666,51 @@
         <v>27</v>
       </c>
       <c r="D12">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
         <f>COUNTIF(TimeStamps[Committed],B12)</f>
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f>COUNTIF(TimeStamps[Done],B12)</f>
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="H12">
+      <c r="I12">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>2</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>4</v>
       </c>
-      <c r="J12" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K12" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L12" s="13">
-        <f>L11+Table121416[[#This Row],[ar]]</f>
-        <v>43.875</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M12" s="13">
-        <f>M11+Table121416[[#This Row],[dep]]</f>
-        <v>43.5</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N12" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>-0.2857142857142857</v>
+      </c>
+      <c r="O12" s="13">
+        <f>O11+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>3.5142857142857142</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="10">
         <f t="shared" si="0"/>
         <v>41095</v>
@@ -48367,47 +47720,51 @@
         <v>27</v>
       </c>
       <c r="D13">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
         <f>COUNTIF(TimeStamps[Committed],B13)</f>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f>COUNTIF(TimeStamps[Done],B13)</f>
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="H13">
+      <c r="I13">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>9</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>5</v>
       </c>
-      <c r="J13" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K13" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L13" s="13">
-        <f>L12+Table121416[[#This Row],[ar]]</f>
-        <v>48.75</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="M13" s="13">
-        <f>M12+Table121416[[#This Row],[dep]]</f>
-        <v>48.333333333333336</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N13" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.4166666666666643</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>0.57142857142857151</v>
+      </c>
+      <c r="O13" s="13">
+        <f>O12+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>4.0857142857142854</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="10">
         <f t="shared" si="0"/>
         <v>41096</v>
@@ -48417,47 +47774,51 @@
         <v>27</v>
       </c>
       <c r="D14">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
         <f>COUNTIF(TimeStamps[Committed],B14)</f>
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f>COUNTIF(TimeStamps[Done],B14)</f>
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="H14">
+      <c r="I14">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>3</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>13</v>
       </c>
-      <c r="J14" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K14" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L14" s="13">
-        <f>L13+Table121416[[#This Row],[ar]]</f>
-        <v>53.625</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="M14" s="13">
-        <f>M13+Table121416[[#This Row],[dep]]</f>
-        <v>53.166666666666671</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="N14" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.4583333333333286</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>-1.4285714285714286</v>
+      </c>
+      <c r="O14" s="13">
+        <f>O13+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>2.6571428571428566</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="10">
         <f t="shared" si="0"/>
         <v>41097</v>
@@ -48467,47 +47828,51 @@
         <v>27</v>
       </c>
       <c r="D15">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
         <f>COUNTIF(TimeStamps[Committed],B15)</f>
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f>COUNTIF(TimeStamps[Done],B15)</f>
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="H15">
+      <c r="I15">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>8</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>7</v>
       </c>
-      <c r="J15" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K15" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L15" s="13">
-        <f>L14+Table121416[[#This Row],[ar]]</f>
-        <v>58.5</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="M15" s="13">
-        <f>M14+Table121416[[#This Row],[dep]]</f>
-        <v>58.000000000000007</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>1</v>
       </c>
       <c r="N15" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.49999999999999289</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="O15" s="13">
+        <f>O14+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>2.7999999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="10">
         <f t="shared" si="0"/>
         <v>41098</v>
@@ -48517,47 +47882,51 @@
         <v>28</v>
       </c>
       <c r="D16">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
         <f>COUNTIF(TimeStamps[Committed],B16)</f>
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f>COUNTIF(TimeStamps[Done],B16)</f>
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="H16">
+      <c r="I16">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>3</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>4</v>
       </c>
-      <c r="J16" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K16" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L16" s="13">
-        <f>L15+Table121416[[#This Row],[ar]]</f>
-        <v>63.375</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="M16" s="13">
-        <f>M15+Table121416[[#This Row],[dep]]</f>
-        <v>62.833333333333343</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N16" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.54166666666665719</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>-0.14285714285714285</v>
+      </c>
+      <c r="O16" s="13">
+        <f>O15+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>2.6571428571428566</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="10">
         <f t="shared" si="0"/>
         <v>41099</v>
@@ -48567,47 +47936,51 @@
         <v>28</v>
       </c>
       <c r="D17">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
         <f>COUNTIF(TimeStamps[Committed],B17)</f>
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f>COUNTIF(TimeStamps[Done],B17)</f>
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="H17">
+      <c r="I17">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>8</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>6</v>
       </c>
-      <c r="J17" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K17" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L17" s="13">
-        <f>L16+Table121416[[#This Row],[ar]]</f>
-        <v>68.25</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="M17" s="13">
-        <f>M16+Table121416[[#This Row],[dep]]</f>
-        <v>67.666666666666671</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N17" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.5833333333333286</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O17" s="13">
+        <f>O16+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>2.9428571428571422</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="10">
         <f t="shared" si="0"/>
         <v>41100</v>
@@ -48617,47 +47990,51 @@
         <v>28</v>
       </c>
       <c r="D18">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
         <f>COUNTIF(TimeStamps[Committed],B18)</f>
         <v>6</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f>COUNTIF(TimeStamps[Done],B18)</f>
         <v>2</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="H18">
+      <c r="I18">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>5</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>0</v>
       </c>
-      <c r="J18" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K18" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L18" s="13">
-        <f>L17+Table121416[[#This Row],[ar]]</f>
-        <v>73.125</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="M18" s="13">
-        <f>M17+Table121416[[#This Row],[dep]]</f>
-        <v>72.5</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>0</v>
       </c>
       <c r="N18" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="O18" s="13">
+        <f>O17+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>3.6571428571428566</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="10">
         <f t="shared" si="0"/>
         <v>41101</v>
@@ -48667,47 +48044,51 @@
         <v>28</v>
       </c>
       <c r="D19">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
         <f>COUNTIF(TimeStamps[Committed],B19)</f>
         <v>2</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f>COUNTIF(TimeStamps[Done],B19)</f>
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="H19">
+      <c r="I19">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>1</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>2</v>
       </c>
-      <c r="J19" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K19" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L19" s="13">
-        <f>L18+Table121416[[#This Row],[ar]]</f>
-        <v>78</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="M19" s="13">
-        <f>M18+Table121416[[#This Row],[dep]]</f>
-        <v>77.333333333333329</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N19" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.6666666666666714</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>-0.14285714285714285</v>
+      </c>
+      <c r="O19" s="13">
+        <f>O18+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>3.5142857142857138</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="10">
         <f t="shared" si="0"/>
         <v>41102</v>
@@ -48717,47 +48098,51 @@
         <v>28</v>
       </c>
       <c r="D20">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
         <f>COUNTIF(TimeStamps[Committed],B20)</f>
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f>COUNTIF(TimeStamps[Done],B20)</f>
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="H20">
+      <c r="I20">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>4</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>12</v>
       </c>
-      <c r="J20" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K20" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L20" s="13">
-        <f>L19+Table121416[[#This Row],[ar]]</f>
-        <v>82.875</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M20" s="13">
-        <f>M19+Table121416[[#This Row],[dep]]</f>
-        <v>82.166666666666657</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="N20" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.70833333333334281</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>-1.1428571428571428</v>
+      </c>
+      <c r="O20" s="13">
+        <f>O19+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>2.371428571428571</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="10">
         <f t="shared" si="0"/>
         <v>41103</v>
@@ -48767,47 +48152,51 @@
         <v>28</v>
       </c>
       <c r="D21">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
         <f>COUNTIF(TimeStamps[Committed],B21)</f>
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f>COUNTIF(TimeStamps[Done],B21)</f>
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="H21">
+      <c r="I21">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>11</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>7</v>
       </c>
-      <c r="J21" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K21" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L21" s="13">
-        <f>L20+Table121416[[#This Row],[ar]]</f>
-        <v>87.75</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>1.5714285714285714</v>
       </c>
       <c r="M21" s="13">
-        <f>M20+Table121416[[#This Row],[dep]]</f>
-        <v>86.999999999999986</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>1</v>
       </c>
       <c r="N21" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.75000000000001421</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O21" s="13">
+        <f>O20+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>2.9428571428571422</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="10">
         <f t="shared" si="0"/>
         <v>41104</v>
@@ -48817,47 +48206,51 @@
         <v>28</v>
       </c>
       <c r="D22">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
         <f>COUNTIF(TimeStamps[Committed],B22)</f>
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f>COUNTIF(TimeStamps[Done],B22)</f>
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="H22">
+      <c r="I22">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>5</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>9</v>
       </c>
-      <c r="J22" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K22" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L22" s="13">
-        <f>L21+Table121416[[#This Row],[ar]]</f>
-        <v>92.625</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="M22" s="13">
-        <f>M21+Table121416[[#This Row],[dep]]</f>
-        <v>91.833333333333314</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>1.2857142857142858</v>
       </c>
       <c r="N22" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.79166666666668561</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>-0.57142857142857151</v>
+      </c>
+      <c r="O22" s="13">
+        <f>O21+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>2.3714285714285706</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="10">
         <f t="shared" si="0"/>
         <v>41105</v>
@@ -48867,47 +48260,51 @@
         <v>29</v>
       </c>
       <c r="D23">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
         <f>COUNTIF(TimeStamps[Committed],B23)</f>
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f>COUNTIF(TimeStamps[Done],B23)</f>
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="H23">
+      <c r="I23">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>3</v>
       </c>
-      <c r="J23" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K23" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L23" s="13">
-        <f>L22+Table121416[[#This Row],[ar]]</f>
-        <v>97.5</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>0</v>
       </c>
       <c r="M23" s="13">
-        <f>M22+Table121416[[#This Row],[dep]]</f>
-        <v>96.666666666666643</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="N23" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.83333333333335702</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>-0.42857142857142855</v>
+      </c>
+      <c r="O23" s="13">
+        <f>O22+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>1.9428571428571419</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="10">
         <f t="shared" si="0"/>
         <v>41106</v>
@@ -48917,47 +48314,51 @@
         <v>29</v>
       </c>
       <c r="D24">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
         <f>COUNTIF(TimeStamps[Committed],B24)</f>
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f>COUNTIF(TimeStamps[Done],B24)</f>
         <v>0</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="H24">
+      <c r="I24">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>11</v>
       </c>
-      <c r="J24" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K24" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L24" s="13">
-        <f>L23+Table121416[[#This Row],[ar]]</f>
-        <v>102.375</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>0</v>
       </c>
       <c r="M24" s="13">
-        <f>M23+Table121416[[#This Row],[dep]]</f>
-        <v>101.49999999999997</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>1.5714285714285714</v>
       </c>
       <c r="N24" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.87500000000002842</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>-1.5714285714285714</v>
+      </c>
+      <c r="O24" s="13">
+        <f>O23+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>0.37142857142857055</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="10">
         <f t="shared" si="0"/>
         <v>41107</v>
@@ -48967,47 +48368,51 @@
         <v>29</v>
       </c>
       <c r="D25">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
         <f>COUNTIF(TimeStamps[Committed],B25)</f>
         <v>6</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f>COUNTIF(TimeStamps[Done],B25)</f>
         <v>4</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="H25">
+      <c r="I25">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>4</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>4</v>
       </c>
-      <c r="J25" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K25" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L25" s="13">
-        <f>L24+Table121416[[#This Row],[ar]]</f>
-        <v>107.25</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M25" s="13">
-        <f>M24+Table121416[[#This Row],[dep]]</f>
-        <v>106.3333333333333</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N25" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.91666666666669983</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="13">
+        <f>O24+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>0.37142857142857055</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="10">
         <f t="shared" si="0"/>
         <v>41108</v>
@@ -49017,47 +48422,51 @@
         <v>29</v>
       </c>
       <c r="D26">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
         <f>COUNTIF(TimeStamps[Committed],B26)</f>
         <v>5</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f>COUNTIF(TimeStamps[Done],B26)</f>
         <v>0</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="H26">
+      <c r="I26">
+        <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Options])</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
         <v>1</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <f>SUMIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
         <v>2</v>
       </c>
-      <c r="J26" s="13">
-        <f>IFERROR(AVERAGE(Table121416[Com/week]),0)</f>
-        <v>4.875</v>
-      </c>
-      <c r="K26" s="13">
-        <f>AVERAGE(Table121416[Done/week])</f>
-        <v>4.833333333333333</v>
-      </c>
       <c r="L26" s="13">
-        <f>L25+Table121416[[#This Row],[ar]]</f>
-        <v>112.125</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Committed])</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M26" s="13">
-        <f>M25+Table121416[[#This Row],[dep]]</f>
-        <v>111.16666666666663</v>
+        <f>AVERAGEIF(Table111115[Week],Table121416[[#This Row],[Week]],Table111115[Done])</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N26" s="13">
-        <f>Table121416[[#This Row],[avg arrival]]-Table121416[[#This Row],[avg departure]]</f>
-        <v>0.95833333333337123</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+        <f>Table121416[[#This Row],[weekly avg arrival rate]]-Table121416[[#This Row],[weekly avg departure rate]]</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="O26" s="13">
+        <f>O25+Table121416[[#This Row],[arrival - departure]]</f>
+        <v>3.8095238095237238E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="10">
         <f t="shared" si="0"/>
         <v>41109</v>
@@ -49067,15 +48476,19 @@
         <v>29</v>
       </c>
       <c r="D27">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
         <f>COUNTIF(TimeStamps[Committed],B27)</f>
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f>COUNTIF(TimeStamps[Done],B27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="10">
         <f t="shared" si="0"/>
         <v>41110</v>
@@ -49085,15 +48498,19 @@
         <v>29</v>
       </c>
       <c r="D28">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E28">
         <f>COUNTIF(TimeStamps[Committed],B28)</f>
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f>COUNTIF(TimeStamps[Done],B28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="10">
         <f t="shared" si="0"/>
         <v>41111</v>
@@ -49103,15 +48520,19 @@
         <v>29</v>
       </c>
       <c r="D29">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
         <f>COUNTIF(TimeStamps[Committed],B29)</f>
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f>COUNTIF(TimeStamps[Done],B29)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="10">
         <f t="shared" si="0"/>
         <v>41112</v>
@@ -49121,15 +48542,19 @@
         <v>30</v>
       </c>
       <c r="D30">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
         <f>COUNTIF(TimeStamps[Committed],B30)</f>
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <f>COUNTIF(TimeStamps[Done],B30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="10">
         <f t="shared" si="0"/>
         <v>41113</v>
@@ -49139,15 +48564,19 @@
         <v>30</v>
       </c>
       <c r="D31">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
         <f>COUNTIF(TimeStamps[Committed],B31)</f>
         <v>0</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <f>COUNTIF(TimeStamps[Done],B31)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="10">
         <f t="shared" si="0"/>
         <v>41114</v>
@@ -49157,15 +48586,19 @@
         <v>30</v>
       </c>
       <c r="D32">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
         <f>COUNTIF(TimeStamps[Committed],B32)</f>
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <f>COUNTIF(TimeStamps[Done],B32)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="10">
         <f t="shared" si="0"/>
         <v>41115</v>
@@ -49175,15 +48608,19 @@
         <v>30</v>
       </c>
       <c r="D33">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
         <f>COUNTIF(TimeStamps[Committed],B33)</f>
         <v>4</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <f>COUNTIF(TimeStamps[Done],B33)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="10">
         <f t="shared" si="0"/>
         <v>41116</v>
@@ -49193,15 +48630,19 @@
         <v>30</v>
       </c>
       <c r="D34">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E34">
         <f>COUNTIF(TimeStamps[Committed],B34)</f>
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <f>COUNTIF(TimeStamps[Done],B34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="10">
         <f t="shared" si="0"/>
         <v>41117</v>
@@ -49211,15 +48652,19 @@
         <v>30</v>
       </c>
       <c r="D35">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
         <f>COUNTIF(TimeStamps[Committed],B35)</f>
         <v>0</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <f>COUNTIF(TimeStamps[Done],B35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="10">
         <f t="shared" si="0"/>
         <v>41118</v>
@@ -49229,15 +48674,19 @@
         <v>30</v>
       </c>
       <c r="D36">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E36">
         <f>COUNTIF(TimeStamps[Committed],B36)</f>
         <v>0</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <f>COUNTIF(TimeStamps[Done],B36)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="10">
         <f t="shared" si="0"/>
         <v>41119</v>
@@ -49247,15 +48696,19 @@
         <v>31</v>
       </c>
       <c r="D37">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E37">
         <f>COUNTIF(TimeStamps[Committed],B37)</f>
         <v>0</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <f>COUNTIF(TimeStamps[Done],B37)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="10">
         <f t="shared" si="0"/>
         <v>41120</v>
@@ -49265,15 +48718,19 @@
         <v>31</v>
       </c>
       <c r="D38">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
         <f>COUNTIF(TimeStamps[Committed],B38)</f>
         <v>5</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <f>COUNTIF(TimeStamps[Done],B38)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="10">
         <f t="shared" si="0"/>
         <v>41121</v>
@@ -49283,15 +48740,19 @@
         <v>31</v>
       </c>
       <c r="D39">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E39">
         <f>COUNTIF(TimeStamps[Committed],B39)</f>
         <v>0</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <f>COUNTIF(TimeStamps[Done],B39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="10">
         <f t="shared" si="0"/>
         <v>41122</v>
@@ -49301,15 +48762,19 @@
         <v>31</v>
       </c>
       <c r="D40">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E40">
         <f>COUNTIF(TimeStamps[Committed],B40)</f>
         <v>0</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <f>COUNTIF(TimeStamps[Done],B40)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="10">
         <f t="shared" si="0"/>
         <v>41123</v>
@@ -49319,15 +48784,19 @@
         <v>31</v>
       </c>
       <c r="D41">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E41">
         <f>COUNTIF(TimeStamps[Committed],B41)</f>
         <v>3</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <f>COUNTIF(TimeStamps[Done],B41)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="10">
         <f t="shared" si="0"/>
         <v>41124</v>
@@ -49337,15 +48806,19 @@
         <v>31</v>
       </c>
       <c r="D42">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E42">
         <f>COUNTIF(TimeStamps[Committed],B42)</f>
         <v>0</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <f>COUNTIF(TimeStamps[Done],B42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="10">
         <f t="shared" si="0"/>
         <v>41125</v>
@@ -49355,15 +48828,19 @@
         <v>31</v>
       </c>
       <c r="D43">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E43">
         <f>COUNTIF(TimeStamps[Committed],B43)</f>
         <v>0</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <f>COUNTIF(TimeStamps[Done],B43)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="10">
         <f t="shared" si="0"/>
         <v>41126</v>
@@ -49373,15 +48850,19 @@
         <v>32</v>
       </c>
       <c r="D44">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E44">
         <f>COUNTIF(TimeStamps[Committed],B44)</f>
         <v>0</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <f>COUNTIF(TimeStamps[Done],B44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="10">
         <f t="shared" si="0"/>
         <v>41127</v>
@@ -49391,15 +48872,19 @@
         <v>32</v>
       </c>
       <c r="D45">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
         <f>COUNTIF(TimeStamps[Committed],B45)</f>
         <v>3</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <f>COUNTIF(TimeStamps[Done],B45)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="10">
         <f t="shared" si="0"/>
         <v>41128</v>
@@ -49409,15 +48894,19 @@
         <v>32</v>
       </c>
       <c r="D46">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E46">
         <f>COUNTIF(TimeStamps[Committed],B46)</f>
         <v>2</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <f>COUNTIF(TimeStamps[Done],B46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="10">
         <f t="shared" si="0"/>
         <v>41129</v>
@@ -49427,15 +48916,19 @@
         <v>32</v>
       </c>
       <c r="D47">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
         <f>COUNTIF(TimeStamps[Committed],B47)</f>
         <v>1</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <f>COUNTIF(TimeStamps[Done],B47)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="10">
         <f t="shared" si="0"/>
         <v>41130</v>
@@ -49445,15 +48938,19 @@
         <v>32</v>
       </c>
       <c r="D48">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
         <f>COUNTIF(TimeStamps[Committed],B48)</f>
         <v>0</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <f>COUNTIF(TimeStamps[Done],B48)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="10">
         <f t="shared" si="0"/>
         <v>41131</v>
@@ -49463,15 +48960,19 @@
         <v>32</v>
       </c>
       <c r="D49">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E49">
         <f>COUNTIF(TimeStamps[Committed],B49)</f>
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <f>COUNTIF(TimeStamps[Done],B49)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="10">
         <f t="shared" si="0"/>
         <v>41132</v>
@@ -49481,15 +48982,19 @@
         <v>32</v>
       </c>
       <c r="D50">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E50">
         <f>COUNTIF(TimeStamps[Committed],B50)</f>
         <v>0</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <f>COUNTIF(TimeStamps[Done],B50)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="10">
         <f t="shared" si="0"/>
         <v>41133</v>
@@ -49499,15 +49004,19 @@
         <v>33</v>
       </c>
       <c r="D51">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E51">
         <f>COUNTIF(TimeStamps[Committed],B51)</f>
         <v>0</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <f>COUNTIF(TimeStamps[Done],B51)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="10">
         <f t="shared" si="0"/>
         <v>41134</v>
@@ -49517,15 +49026,19 @@
         <v>33</v>
       </c>
       <c r="D52">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
         <f>COUNTIF(TimeStamps[Committed],B52)</f>
         <v>3</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <f>COUNTIF(TimeStamps[Done],B52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="10">
         <f t="shared" si="0"/>
         <v>41135</v>
@@ -49535,15 +49048,19 @@
         <v>33</v>
       </c>
       <c r="D53">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
         <f>COUNTIF(TimeStamps[Committed],B53)</f>
         <v>1</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <f>COUNTIF(TimeStamps[Done],B53)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="10">
         <f t="shared" si="0"/>
         <v>41136</v>
@@ -49553,15 +49070,19 @@
         <v>33</v>
       </c>
       <c r="D54">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
         <f>COUNTIF(TimeStamps[Committed],B54)</f>
         <v>1</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <f>COUNTIF(TimeStamps[Done],B54)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="10">
         <f t="shared" si="0"/>
         <v>41137</v>
@@ -49571,15 +49092,19 @@
         <v>33</v>
       </c>
       <c r="D55">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E55">
         <f>COUNTIF(TimeStamps[Committed],B55)</f>
         <v>0</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <f>COUNTIF(TimeStamps[Done],B55)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="10">
         <f t="shared" si="0"/>
         <v>41138</v>
@@ -49589,15 +49114,19 @@
         <v>33</v>
       </c>
       <c r="D56">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E56">
         <f>COUNTIF(TimeStamps[Committed],B56)</f>
         <v>0</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <f>COUNTIF(TimeStamps[Done],B56)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="10">
         <f t="shared" si="0"/>
         <v>41139</v>
@@ -49607,15 +49136,19 @@
         <v>33</v>
       </c>
       <c r="D57">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
         <f>COUNTIF(TimeStamps[Committed],B57)</f>
         <v>0</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <f>COUNTIF(TimeStamps[Done],B57)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="10">
         <f t="shared" si="0"/>
         <v>41140</v>
@@ -49625,15 +49158,19 @@
         <v>34</v>
       </c>
       <c r="D58">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E58">
         <f>COUNTIF(TimeStamps[Committed],B58)</f>
         <v>0</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <f>COUNTIF(TimeStamps[Done],B58)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="10">
         <f t="shared" si="0"/>
         <v>41141</v>
@@ -49643,15 +49180,19 @@
         <v>34</v>
       </c>
       <c r="D59">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E59">
         <f>COUNTIF(TimeStamps[Committed],B59)</f>
         <v>1</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <f>COUNTIF(TimeStamps[Done],B59)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="10">
         <f t="shared" si="0"/>
         <v>41142</v>
@@ -49661,15 +49202,19 @@
         <v>34</v>
       </c>
       <c r="D60">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E60">
         <f>COUNTIF(TimeStamps[Committed],B60)</f>
         <v>0</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <f>COUNTIF(TimeStamps[Done],B60)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="10">
         <f t="shared" si="0"/>
         <v>41143</v>
@@ -49679,15 +49224,19 @@
         <v>34</v>
       </c>
       <c r="D61">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E61">
         <f>COUNTIF(TimeStamps[Committed],B61)</f>
         <v>1</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <f>COUNTIF(TimeStamps[Done],B61)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="10">
         <f t="shared" si="0"/>
         <v>41144</v>
@@ -49697,15 +49246,19 @@
         <v>34</v>
       </c>
       <c r="D62">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E62">
         <f>COUNTIF(TimeStamps[Committed],B62)</f>
         <v>1</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <f>COUNTIF(TimeStamps[Done],B62)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="10">
         <f t="shared" si="0"/>
         <v>41145</v>
@@ -49715,15 +49268,19 @@
         <v>34</v>
       </c>
       <c r="D63">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E63">
         <f>COUNTIF(TimeStamps[Committed],B63)</f>
         <v>0</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <f>COUNTIF(TimeStamps[Done],B63)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="10">
         <f t="shared" si="0"/>
         <v>41146</v>
@@ -49733,15 +49290,19 @@
         <v>34</v>
       </c>
       <c r="D64">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E64">
         <f>COUNTIF(TimeStamps[Committed],B64)</f>
         <v>0</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <f>COUNTIF(TimeStamps[Done],B64)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="10">
         <f t="shared" si="0"/>
         <v>41147</v>
@@ -49751,15 +49312,19 @@
         <v>35</v>
       </c>
       <c r="D65">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E65">
         <f>COUNTIF(TimeStamps[Committed],B65)</f>
         <v>0</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <f>COUNTIF(TimeStamps[Done],B65)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="10">
         <f t="shared" si="0"/>
         <v>41148</v>
@@ -49769,15 +49334,19 @@
         <v>35</v>
       </c>
       <c r="D66">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E66">
         <f>COUNTIF(TimeStamps[Committed],B66)</f>
         <v>0</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <f>COUNTIF(TimeStamps[Done],B66)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="10">
         <f t="shared" si="0"/>
         <v>41149</v>
@@ -49787,15 +49356,19 @@
         <v>35</v>
       </c>
       <c r="D67">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E67">
         <f>COUNTIF(TimeStamps[Committed],B67)</f>
         <v>1</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <f>COUNTIF(TimeStamps[Done],B67)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="10">
         <f t="shared" si="0"/>
         <v>41150</v>
@@ -49805,15 +49378,19 @@
         <v>35</v>
       </c>
       <c r="D68">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E68">
         <f>COUNTIF(TimeStamps[Committed],B68)</f>
         <v>0</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <f>COUNTIF(TimeStamps[Done],B68)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="10">
         <f t="shared" ref="B69:B132" si="2">B68+1</f>
         <v>41151</v>
@@ -49823,15 +49400,19 @@
         <v>35</v>
       </c>
       <c r="D69">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E69">
         <f>COUNTIF(TimeStamps[Committed],B69)</f>
         <v>1</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <f>COUNTIF(TimeStamps[Done],B69)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="10">
         <f t="shared" si="2"/>
         <v>41152</v>
@@ -49841,15 +49422,19 @@
         <v>35</v>
       </c>
       <c r="D70">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E70">
         <f>COUNTIF(TimeStamps[Committed],B70)</f>
         <v>0</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <f>COUNTIF(TimeStamps[Done],B70)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="10">
         <f t="shared" si="2"/>
         <v>41153</v>
@@ -49859,15 +49444,19 @@
         <v>35</v>
       </c>
       <c r="D71">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E71">
         <f>COUNTIF(TimeStamps[Committed],B71)</f>
         <v>0</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <f>COUNTIF(TimeStamps[Done],B71)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="10">
         <f t="shared" si="2"/>
         <v>41154</v>
@@ -49877,15 +49466,19 @@
         <v>36</v>
       </c>
       <c r="D72">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E72">
         <f>COUNTIF(TimeStamps[Committed],B72)</f>
         <v>0</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <f>COUNTIF(TimeStamps[Done],B72)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="10">
         <f t="shared" si="2"/>
         <v>41155</v>
@@ -49895,15 +49488,19 @@
         <v>36</v>
       </c>
       <c r="D73">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E73">
         <f>COUNTIF(TimeStamps[Committed],B73)</f>
         <v>2</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <f>COUNTIF(TimeStamps[Done],B73)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="10">
         <f t="shared" si="2"/>
         <v>41156</v>
@@ -49913,15 +49510,19 @@
         <v>36</v>
       </c>
       <c r="D74">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E74">
         <f>COUNTIF(TimeStamps[Committed],B74)</f>
         <v>7</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <f>COUNTIF(TimeStamps[Done],B74)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="10">
         <f t="shared" si="2"/>
         <v>41157</v>
@@ -49931,15 +49532,19 @@
         <v>36</v>
       </c>
       <c r="D75">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E75">
         <f>COUNTIF(TimeStamps[Committed],B75)</f>
         <v>0</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <f>COUNTIF(TimeStamps[Done],B75)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="10">
         <f t="shared" si="2"/>
         <v>41158</v>
@@ -49949,15 +49554,19 @@
         <v>36</v>
       </c>
       <c r="D76">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E76">
         <f>COUNTIF(TimeStamps[Committed],B76)</f>
         <v>0</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <f>COUNTIF(TimeStamps[Done],B76)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="10">
         <f t="shared" si="2"/>
         <v>41159</v>
@@ -49967,15 +49576,19 @@
         <v>36</v>
       </c>
       <c r="D77">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E77">
         <f>COUNTIF(TimeStamps[Committed],B77)</f>
         <v>0</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <f>COUNTIF(TimeStamps[Done],B77)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="10">
         <f t="shared" si="2"/>
         <v>41160</v>
@@ -49985,15 +49598,19 @@
         <v>36</v>
       </c>
       <c r="D78">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E78">
         <f>COUNTIF(TimeStamps[Committed],B78)</f>
         <v>0</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <f>COUNTIF(TimeStamps[Done],B78)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="10">
         <f t="shared" si="2"/>
         <v>41161</v>
@@ -50003,15 +49620,19 @@
         <v>37</v>
       </c>
       <c r="D79">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E79">
         <f>COUNTIF(TimeStamps[Committed],B79)</f>
         <v>0</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <f>COUNTIF(TimeStamps[Done],B79)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="10">
         <f t="shared" si="2"/>
         <v>41162</v>
@@ -50021,15 +49642,19 @@
         <v>37</v>
       </c>
       <c r="D80">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E80">
         <f>COUNTIF(TimeStamps[Committed],B80)</f>
         <v>0</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <f>COUNTIF(TimeStamps[Done],B80)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" s="10">
         <f t="shared" si="2"/>
         <v>41163</v>
@@ -50039,15 +49664,19 @@
         <v>37</v>
       </c>
       <c r="D81">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E81">
         <f>COUNTIF(TimeStamps[Committed],B81)</f>
         <v>3</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <f>COUNTIF(TimeStamps[Done],B81)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="10">
         <f t="shared" si="2"/>
         <v>41164</v>
@@ -50057,15 +49686,19 @@
         <v>37</v>
       </c>
       <c r="D82">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E82">
         <f>COUNTIF(TimeStamps[Committed],B82)</f>
         <v>0</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <f>COUNTIF(TimeStamps[Done],B82)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" s="10">
         <f t="shared" si="2"/>
         <v>41165</v>
@@ -50075,15 +49708,19 @@
         <v>37</v>
       </c>
       <c r="D83">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E83">
         <f>COUNTIF(TimeStamps[Committed],B83)</f>
         <v>0</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <f>COUNTIF(TimeStamps[Done],B83)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="10">
         <f t="shared" si="2"/>
         <v>41166</v>
@@ -50093,15 +49730,19 @@
         <v>37</v>
       </c>
       <c r="D84">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E84">
         <f>COUNTIF(TimeStamps[Committed],B84)</f>
         <v>0</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <f>COUNTIF(TimeStamps[Done],B84)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="10">
         <f t="shared" si="2"/>
         <v>41167</v>
@@ -50111,15 +49752,19 @@
         <v>37</v>
       </c>
       <c r="D85">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E85">
         <f>COUNTIF(TimeStamps[Committed],B85)</f>
         <v>0</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <f>COUNTIF(TimeStamps[Done],B85)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" s="10">
         <f t="shared" si="2"/>
         <v>41168</v>
@@ -50129,15 +49774,19 @@
         <v>38</v>
       </c>
       <c r="D86">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E86">
         <f>COUNTIF(TimeStamps[Committed],B86)</f>
         <v>0</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <f>COUNTIF(TimeStamps[Done],B86)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" s="10">
         <f t="shared" si="2"/>
         <v>41169</v>
@@ -50147,15 +49796,19 @@
         <v>38</v>
       </c>
       <c r="D87">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E87">
         <f>COUNTIF(TimeStamps[Committed],B87)</f>
         <v>1</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <f>COUNTIF(TimeStamps[Done],B87)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="10">
         <f t="shared" si="2"/>
         <v>41170</v>
@@ -50165,15 +49818,19 @@
         <v>38</v>
       </c>
       <c r="D88">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E88">
         <f>COUNTIF(TimeStamps[Committed],B88)</f>
         <v>3</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <f>COUNTIF(TimeStamps[Done],B88)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" s="10">
         <f t="shared" si="2"/>
         <v>41171</v>
@@ -50183,15 +49840,19 @@
         <v>38</v>
       </c>
       <c r="D89">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E89">
         <f>COUNTIF(TimeStamps[Committed],B89)</f>
         <v>0</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <f>COUNTIF(TimeStamps[Done],B89)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" s="10">
         <f t="shared" si="2"/>
         <v>41172</v>
@@ -50201,15 +49862,19 @@
         <v>38</v>
       </c>
       <c r="D90">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E90">
         <f>COUNTIF(TimeStamps[Committed],B90)</f>
         <v>0</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <f>COUNTIF(TimeStamps[Done],B90)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" s="10">
         <f t="shared" si="2"/>
         <v>41173</v>
@@ -50219,15 +49884,19 @@
         <v>38</v>
       </c>
       <c r="D91">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E91">
         <f>COUNTIF(TimeStamps[Committed],B91)</f>
         <v>4</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <f>COUNTIF(TimeStamps[Done],B91)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" s="10">
         <f t="shared" si="2"/>
         <v>41174</v>
@@ -50237,15 +49906,19 @@
         <v>38</v>
       </c>
       <c r="D92">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E92">
         <f>COUNTIF(TimeStamps[Committed],B92)</f>
         <v>0</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <f>COUNTIF(TimeStamps[Done],B92)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="10">
         <f t="shared" si="2"/>
         <v>41175</v>
@@ -50255,15 +49928,19 @@
         <v>39</v>
       </c>
       <c r="D93">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E93">
         <f>COUNTIF(TimeStamps[Committed],B93)</f>
         <v>0</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <f>COUNTIF(TimeStamps[Done],B93)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="10">
         <f t="shared" si="2"/>
         <v>41176</v>
@@ -50273,15 +49950,19 @@
         <v>39</v>
       </c>
       <c r="D94">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E94">
         <f>COUNTIF(TimeStamps[Committed],B94)</f>
         <v>2</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <f>COUNTIF(TimeStamps[Done],B94)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" s="10">
         <f t="shared" si="2"/>
         <v>41177</v>
@@ -50291,15 +49972,19 @@
         <v>39</v>
       </c>
       <c r="D95">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E95">
         <f>COUNTIF(TimeStamps[Committed],B95)</f>
         <v>0</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <f>COUNTIF(TimeStamps[Done],B95)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" s="10">
         <f t="shared" si="2"/>
         <v>41178</v>
@@ -50309,15 +49994,19 @@
         <v>39</v>
       </c>
       <c r="D96">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E96">
         <f>COUNTIF(TimeStamps[Committed],B96)</f>
         <v>0</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <f>COUNTIF(TimeStamps[Done],B96)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" s="10">
         <f t="shared" si="2"/>
         <v>41179</v>
@@ -50327,15 +50016,19 @@
         <v>39</v>
       </c>
       <c r="D97">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E97">
         <f>COUNTIF(TimeStamps[Committed],B97)</f>
         <v>0</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <f>COUNTIF(TimeStamps[Done],B97)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" s="10">
         <f t="shared" si="2"/>
         <v>41180</v>
@@ -50345,15 +50038,19 @@
         <v>39</v>
       </c>
       <c r="D98">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E98">
         <f>COUNTIF(TimeStamps[Committed],B98)</f>
         <v>1</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <f>COUNTIF(TimeStamps[Done],B98)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" s="10">
         <f t="shared" si="2"/>
         <v>41181</v>
@@ -50363,15 +50060,19 @@
         <v>39</v>
       </c>
       <c r="D99">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E99">
         <f>COUNTIF(TimeStamps[Committed],B99)</f>
         <v>0</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <f>COUNTIF(TimeStamps[Done],B99)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" s="10">
         <f t="shared" si="2"/>
         <v>41182</v>
@@ -50381,15 +50082,19 @@
         <v>40</v>
       </c>
       <c r="D100">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E100">
         <f>COUNTIF(TimeStamps[Committed],B100)</f>
         <v>0</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <f>COUNTIF(TimeStamps[Done],B100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" s="10">
         <f t="shared" si="2"/>
         <v>41183</v>
@@ -50399,15 +50104,19 @@
         <v>40</v>
       </c>
       <c r="D101">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E101">
         <f>COUNTIF(TimeStamps[Committed],B101)</f>
         <v>0</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <f>COUNTIF(TimeStamps[Done],B101)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B102" s="10">
         <f t="shared" si="2"/>
         <v>41184</v>
@@ -50417,15 +50126,19 @@
         <v>40</v>
       </c>
       <c r="D102">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E102">
         <f>COUNTIF(TimeStamps[Committed],B102)</f>
         <v>7</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <f>COUNTIF(TimeStamps[Done],B102)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" s="10">
         <f t="shared" si="2"/>
         <v>41185</v>
@@ -50435,15 +50148,19 @@
         <v>40</v>
       </c>
       <c r="D103">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E103">
         <f>COUNTIF(TimeStamps[Committed],B103)</f>
         <v>1</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <f>COUNTIF(TimeStamps[Done],B103)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104" s="10">
         <f t="shared" si="2"/>
         <v>41186</v>
@@ -50453,15 +50170,19 @@
         <v>40</v>
       </c>
       <c r="D104">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E104">
         <f>COUNTIF(TimeStamps[Committed],B104)</f>
         <v>0</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <f>COUNTIF(TimeStamps[Done],B104)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" s="10">
         <f t="shared" si="2"/>
         <v>41187</v>
@@ -50471,15 +50192,19 @@
         <v>40</v>
       </c>
       <c r="D105">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E105">
         <f>COUNTIF(TimeStamps[Committed],B105)</f>
         <v>0</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <f>COUNTIF(TimeStamps[Done],B105)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B106" s="10">
         <f t="shared" si="2"/>
         <v>41188</v>
@@ -50489,15 +50214,19 @@
         <v>40</v>
       </c>
       <c r="D106">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E106">
         <f>COUNTIF(TimeStamps[Committed],B106)</f>
         <v>0</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <f>COUNTIF(TimeStamps[Done],B106)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" s="10">
         <f t="shared" si="2"/>
         <v>41189</v>
@@ -50507,15 +50236,19 @@
         <v>41</v>
       </c>
       <c r="D107">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E107">
         <f>COUNTIF(TimeStamps[Committed],B107)</f>
         <v>0</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <f>COUNTIF(TimeStamps[Done],B107)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108" s="10">
         <f t="shared" si="2"/>
         <v>41190</v>
@@ -50525,15 +50258,19 @@
         <v>41</v>
       </c>
       <c r="D108">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E108">
         <f>COUNTIF(TimeStamps[Committed],B108)</f>
         <v>0</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <f>COUNTIF(TimeStamps[Done],B108)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B109" s="10">
         <f t="shared" si="2"/>
         <v>41191</v>
@@ -50543,15 +50280,19 @@
         <v>41</v>
       </c>
       <c r="D109">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E109">
         <f>COUNTIF(TimeStamps[Committed],B109)</f>
         <v>3</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <f>COUNTIF(TimeStamps[Done],B109)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B110" s="10">
         <f t="shared" si="2"/>
         <v>41192</v>
@@ -50561,15 +50302,19 @@
         <v>41</v>
       </c>
       <c r="D110">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E110">
         <f>COUNTIF(TimeStamps[Committed],B110)</f>
         <v>0</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <f>COUNTIF(TimeStamps[Done],B110)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111" s="10">
         <f t="shared" si="2"/>
         <v>41193</v>
@@ -50579,15 +50324,19 @@
         <v>41</v>
       </c>
       <c r="D111">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E111">
         <f>COUNTIF(TimeStamps[Committed],B111)</f>
         <v>0</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <f>COUNTIF(TimeStamps[Done],B111)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112" s="10">
         <f t="shared" si="2"/>
         <v>41194</v>
@@ -50597,15 +50346,19 @@
         <v>41</v>
       </c>
       <c r="D112">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E112">
         <f>COUNTIF(TimeStamps[Committed],B112)</f>
         <v>2</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <f>COUNTIF(TimeStamps[Done],B112)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" s="10">
         <f t="shared" si="2"/>
         <v>41195</v>
@@ -50615,15 +50368,19 @@
         <v>41</v>
       </c>
       <c r="D113">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E113">
         <f>COUNTIF(TimeStamps[Committed],B113)</f>
         <v>0</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <f>COUNTIF(TimeStamps[Done],B113)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" s="10">
         <f t="shared" si="2"/>
         <v>41196</v>
@@ -50633,15 +50390,19 @@
         <v>42</v>
       </c>
       <c r="D114">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E114">
         <f>COUNTIF(TimeStamps[Committed],B114)</f>
         <v>0</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <f>COUNTIF(TimeStamps[Done],B114)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" s="10">
         <f t="shared" si="2"/>
         <v>41197</v>
@@ -50651,15 +50412,19 @@
         <v>42</v>
       </c>
       <c r="D115">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E115">
         <f>COUNTIF(TimeStamps[Committed],B115)</f>
         <v>1</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <f>COUNTIF(TimeStamps[Done],B115)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" s="10">
         <f t="shared" si="2"/>
         <v>41198</v>
@@ -50669,15 +50434,19 @@
         <v>42</v>
       </c>
       <c r="D116">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E116">
         <f>COUNTIF(TimeStamps[Committed],B116)</f>
         <v>0</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <f>COUNTIF(TimeStamps[Done],B116)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" s="10">
         <f t="shared" si="2"/>
         <v>41199</v>
@@ -50687,15 +50456,19 @@
         <v>42</v>
       </c>
       <c r="D117">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E117">
         <f>COUNTIF(TimeStamps[Committed],B117)</f>
         <v>0</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <f>COUNTIF(TimeStamps[Done],B117)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118" s="10">
         <f t="shared" si="2"/>
         <v>41200</v>
@@ -50705,15 +50478,19 @@
         <v>42</v>
       </c>
       <c r="D118">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E118">
         <f>COUNTIF(TimeStamps[Committed],B118)</f>
         <v>0</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <f>COUNTIF(TimeStamps[Done],B118)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" s="10">
         <f t="shared" si="2"/>
         <v>41201</v>
@@ -50723,15 +50500,19 @@
         <v>42</v>
       </c>
       <c r="D119">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E119">
         <f>COUNTIF(TimeStamps[Committed],B119)</f>
         <v>0</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <f>COUNTIF(TimeStamps[Done],B119)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120" s="10">
         <f t="shared" si="2"/>
         <v>41202</v>
@@ -50741,15 +50522,19 @@
         <v>42</v>
       </c>
       <c r="D120">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E120">
         <f>COUNTIF(TimeStamps[Committed],B120)</f>
         <v>0</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <f>COUNTIF(TimeStamps[Done],B120)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" s="10">
         <f t="shared" si="2"/>
         <v>41203</v>
@@ -50759,15 +50544,19 @@
         <v>43</v>
       </c>
       <c r="D121">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E121">
         <f>COUNTIF(TimeStamps[Committed],B121)</f>
         <v>0</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <f>COUNTIF(TimeStamps[Done],B121)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122" s="10">
         <f t="shared" si="2"/>
         <v>41204</v>
@@ -50777,15 +50566,19 @@
         <v>43</v>
       </c>
       <c r="D122">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E122">
         <f>COUNTIF(TimeStamps[Committed],B122)</f>
         <v>0</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <f>COUNTIF(TimeStamps[Done],B122)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" s="10">
         <f t="shared" si="2"/>
         <v>41205</v>
@@ -50795,15 +50588,19 @@
         <v>43</v>
       </c>
       <c r="D123">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E123">
         <f>COUNTIF(TimeStamps[Committed],B123)</f>
         <v>1</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <f>COUNTIF(TimeStamps[Done],B123)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" s="10">
         <f t="shared" si="2"/>
         <v>41206</v>
@@ -50813,15 +50610,19 @@
         <v>43</v>
       </c>
       <c r="D124">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E124">
         <f>COUNTIF(TimeStamps[Committed],B124)</f>
         <v>1</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <f>COUNTIF(TimeStamps[Done],B124)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" s="10">
         <f t="shared" si="2"/>
         <v>41207</v>
@@ -50831,15 +50632,19 @@
         <v>43</v>
       </c>
       <c r="D125">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E125">
         <f>COUNTIF(TimeStamps[Committed],B125)</f>
         <v>2</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <f>COUNTIF(TimeStamps[Done],B125)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126" s="10">
         <f t="shared" si="2"/>
         <v>41208</v>
@@ -50849,15 +50654,19 @@
         <v>43</v>
       </c>
       <c r="D126">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E126">
         <f>COUNTIF(TimeStamps[Committed],B126)</f>
         <v>0</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <f>COUNTIF(TimeStamps[Done],B126)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" s="10">
         <f t="shared" si="2"/>
         <v>41209</v>
@@ -50867,15 +50676,19 @@
         <v>43</v>
       </c>
       <c r="D127">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E127">
         <f>COUNTIF(TimeStamps[Committed],B127)</f>
         <v>0</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <f>COUNTIF(TimeStamps[Done],B127)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128" s="10">
         <f t="shared" si="2"/>
         <v>41210</v>
@@ -50885,15 +50698,19 @@
         <v>44</v>
       </c>
       <c r="D128">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E128">
         <f>COUNTIF(TimeStamps[Committed],B128)</f>
         <v>0</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <f>COUNTIF(TimeStamps[Done],B128)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" s="10">
         <f t="shared" si="2"/>
         <v>41211</v>
@@ -50903,15 +50720,19 @@
         <v>44</v>
       </c>
       <c r="D129">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E129">
         <f>COUNTIF(TimeStamps[Committed],B129)</f>
         <v>0</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <f>COUNTIF(TimeStamps[Done],B129)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B130" s="10">
         <f t="shared" si="2"/>
         <v>41212</v>
@@ -50921,15 +50742,19 @@
         <v>44</v>
       </c>
       <c r="D130">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E130">
         <f>COUNTIF(TimeStamps[Committed],B130)</f>
         <v>2</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <f>COUNTIF(TimeStamps[Done],B130)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" s="10">
         <f t="shared" si="2"/>
         <v>41213</v>
@@ -50939,15 +50764,19 @@
         <v>44</v>
       </c>
       <c r="D131">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E131">
         <f>COUNTIF(TimeStamps[Committed],B131)</f>
         <v>0</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <f>COUNTIF(TimeStamps[Done],B131)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" s="10">
         <f t="shared" si="2"/>
         <v>41214</v>
@@ -50957,15 +50786,19 @@
         <v>44</v>
       </c>
       <c r="D132">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E132">
         <f>COUNTIF(TimeStamps[Committed],B132)</f>
         <v>3</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <f>COUNTIF(TimeStamps[Done],B132)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B133" s="10">
         <f t="shared" ref="B133:B165" si="3">B132+1</f>
         <v>41215</v>
@@ -50975,15 +50808,19 @@
         <v>44</v>
       </c>
       <c r="D133">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E133">
         <f>COUNTIF(TimeStamps[Committed],B133)</f>
         <v>6</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <f>COUNTIF(TimeStamps[Done],B133)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B134" s="10">
         <f t="shared" si="3"/>
         <v>41216</v>
@@ -50993,15 +50830,19 @@
         <v>44</v>
       </c>
       <c r="D134">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E134">
         <f>COUNTIF(TimeStamps[Committed],B134)</f>
         <v>0</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <f>COUNTIF(TimeStamps[Done],B134)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135" s="10">
         <f t="shared" si="3"/>
         <v>41217</v>
@@ -51011,15 +50852,19 @@
         <v>45</v>
       </c>
       <c r="D135">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E135">
         <f>COUNTIF(TimeStamps[Committed],B135)</f>
         <v>0</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <f>COUNTIF(TimeStamps[Done],B135)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B136" s="10">
         <f t="shared" si="3"/>
         <v>41218</v>
@@ -51029,15 +50874,19 @@
         <v>45</v>
       </c>
       <c r="D136">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E136">
         <f>COUNTIF(TimeStamps[Committed],B136)</f>
         <v>1</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <f>COUNTIF(TimeStamps[Done],B136)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137" s="10">
         <f t="shared" si="3"/>
         <v>41219</v>
@@ -51047,15 +50896,19 @@
         <v>45</v>
       </c>
       <c r="D137">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E137">
         <f>COUNTIF(TimeStamps[Committed],B137)</f>
         <v>1</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <f>COUNTIF(TimeStamps[Done],B137)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B138" s="10">
         <f t="shared" si="3"/>
         <v>41220</v>
@@ -51065,15 +50918,19 @@
         <v>45</v>
       </c>
       <c r="D138">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E138">
         <f>COUNTIF(TimeStamps[Committed],B138)</f>
         <v>1</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <f>COUNTIF(TimeStamps[Done],B138)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B139" s="10">
         <f t="shared" si="3"/>
         <v>41221</v>
@@ -51083,15 +50940,19 @@
         <v>45</v>
       </c>
       <c r="D139">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E139">
         <f>COUNTIF(TimeStamps[Committed],B139)</f>
         <v>2</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <f>COUNTIF(TimeStamps[Done],B139)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B140" s="10">
         <f t="shared" si="3"/>
         <v>41222</v>
@@ -51101,15 +50962,19 @@
         <v>45</v>
       </c>
       <c r="D140">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E140">
         <f>COUNTIF(TimeStamps[Committed],B140)</f>
         <v>0</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <f>COUNTIF(TimeStamps[Done],B140)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141" s="10">
         <f t="shared" si="3"/>
         <v>41223</v>
@@ -51119,15 +50984,19 @@
         <v>45</v>
       </c>
       <c r="D141">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E141">
         <f>COUNTIF(TimeStamps[Committed],B141)</f>
         <v>0</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <f>COUNTIF(TimeStamps[Done],B141)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142" s="10">
         <f t="shared" si="3"/>
         <v>41224</v>
@@ -51137,15 +51006,19 @@
         <v>46</v>
       </c>
       <c r="D142">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E142">
         <f>COUNTIF(TimeStamps[Committed],B142)</f>
         <v>0</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <f>COUNTIF(TimeStamps[Done],B142)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143" s="10">
         <f t="shared" si="3"/>
         <v>41225</v>
@@ -51155,15 +51028,19 @@
         <v>46</v>
       </c>
       <c r="D143">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E143">
         <f>COUNTIF(TimeStamps[Committed],B143)</f>
         <v>0</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <f>COUNTIF(TimeStamps[Done],B143)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B144" s="10">
         <f t="shared" si="3"/>
         <v>41226</v>
@@ -51173,15 +51050,19 @@
         <v>46</v>
       </c>
       <c r="D144">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E144">
         <f>COUNTIF(TimeStamps[Committed],B144)</f>
         <v>0</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <f>COUNTIF(TimeStamps[Done],B144)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B145" s="10">
         <f t="shared" si="3"/>
         <v>41227</v>
@@ -51191,15 +51072,19 @@
         <v>46</v>
       </c>
       <c r="D145">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E145">
         <f>COUNTIF(TimeStamps[Committed],B145)</f>
         <v>0</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <f>COUNTIF(TimeStamps[Done],B145)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B146" s="10">
         <f t="shared" si="3"/>
         <v>41228</v>
@@ -51209,15 +51094,19 @@
         <v>46</v>
       </c>
       <c r="D146">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E146">
         <f>COUNTIF(TimeStamps[Committed],B146)</f>
         <v>0</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <f>COUNTIF(TimeStamps[Done],B146)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" s="10">
         <f t="shared" si="3"/>
         <v>41229</v>
@@ -51227,15 +51116,19 @@
         <v>46</v>
       </c>
       <c r="D147">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E147">
         <f>COUNTIF(TimeStamps[Committed],B147)</f>
         <v>0</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <f>COUNTIF(TimeStamps[Done],B147)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B148" s="10">
         <f t="shared" si="3"/>
         <v>41230</v>
@@ -51245,15 +51138,19 @@
         <v>46</v>
       </c>
       <c r="D148">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E148">
         <f>COUNTIF(TimeStamps[Committed],B148)</f>
         <v>0</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <f>COUNTIF(TimeStamps[Done],B148)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B149" s="10">
         <f t="shared" si="3"/>
         <v>41231</v>
@@ -51263,15 +51160,19 @@
         <v>47</v>
       </c>
       <c r="D149">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E149">
         <f>COUNTIF(TimeStamps[Committed],B149)</f>
         <v>0</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <f>COUNTIF(TimeStamps[Done],B149)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B150" s="10">
         <f t="shared" si="3"/>
         <v>41232</v>
@@ -51281,15 +51182,19 @@
         <v>47</v>
       </c>
       <c r="D150">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E150">
         <f>COUNTIF(TimeStamps[Committed],B150)</f>
         <v>0</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <f>COUNTIF(TimeStamps[Done],B150)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" s="10">
         <f t="shared" si="3"/>
         <v>41233</v>
@@ -51299,15 +51204,19 @@
         <v>47</v>
       </c>
       <c r="D151">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E151">
         <f>COUNTIF(TimeStamps[Committed],B151)</f>
         <v>0</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <f>COUNTIF(TimeStamps[Done],B151)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B152" s="10">
         <f t="shared" si="3"/>
         <v>41234</v>
@@ -51317,15 +51226,19 @@
         <v>47</v>
       </c>
       <c r="D152">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E152">
         <f>COUNTIF(TimeStamps[Committed],B152)</f>
         <v>0</v>
       </c>
-      <c r="E152">
+      <c r="F152">
         <f>COUNTIF(TimeStamps[Done],B152)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B153" s="10">
         <f t="shared" si="3"/>
         <v>41235</v>
@@ -51335,15 +51248,19 @@
         <v>47</v>
       </c>
       <c r="D153">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E153">
         <f>COUNTIF(TimeStamps[Committed],B153)</f>
         <v>0</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <f>COUNTIF(TimeStamps[Done],B153)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B154" s="10">
         <f t="shared" si="3"/>
         <v>41236</v>
@@ -51353,15 +51270,19 @@
         <v>47</v>
       </c>
       <c r="D154">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E154">
         <f>COUNTIF(TimeStamps[Committed],B154)</f>
         <v>0</v>
       </c>
-      <c r="E154">
+      <c r="F154">
         <f>COUNTIF(TimeStamps[Done],B154)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" s="10">
         <f t="shared" si="3"/>
         <v>41237</v>
@@ -51371,15 +51292,19 @@
         <v>47</v>
       </c>
       <c r="D155">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E155">
         <f>COUNTIF(TimeStamps[Committed],B155)</f>
         <v>0</v>
       </c>
-      <c r="E155">
+      <c r="F155">
         <f>COUNTIF(TimeStamps[Done],B155)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" s="10">
         <f t="shared" si="3"/>
         <v>41238</v>
@@ -51389,15 +51314,19 @@
         <v>48</v>
       </c>
       <c r="D156">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E156">
         <f>COUNTIF(TimeStamps[Committed],B156)</f>
         <v>0</v>
       </c>
-      <c r="E156">
+      <c r="F156">
         <f>COUNTIF(TimeStamps[Done],B156)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157" s="10">
         <f t="shared" si="3"/>
         <v>41239</v>
@@ -51407,15 +51336,19 @@
         <v>48</v>
       </c>
       <c r="D157">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E157">
         <f>COUNTIF(TimeStamps[Committed],B157)</f>
         <v>0</v>
       </c>
-      <c r="E157">
+      <c r="F157">
         <f>COUNTIF(TimeStamps[Done],B157)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B158" s="10">
         <f t="shared" si="3"/>
         <v>41240</v>
@@ -51425,15 +51358,19 @@
         <v>48</v>
       </c>
       <c r="D158">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E158">
         <f>COUNTIF(TimeStamps[Committed],B158)</f>
         <v>3</v>
       </c>
-      <c r="E158">
+      <c r="F158">
         <f>COUNTIF(TimeStamps[Done],B158)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B159" s="10">
         <f t="shared" si="3"/>
         <v>41241</v>
@@ -51443,15 +51380,19 @@
         <v>48</v>
       </c>
       <c r="D159">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E159">
         <f>COUNTIF(TimeStamps[Committed],B159)</f>
         <v>0</v>
       </c>
-      <c r="E159">
+      <c r="F159">
         <f>COUNTIF(TimeStamps[Done],B159)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" s="10">
         <f t="shared" si="3"/>
         <v>41242</v>
@@ -51461,15 +51402,19 @@
         <v>48</v>
       </c>
       <c r="D160">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E160">
         <f>COUNTIF(TimeStamps[Committed],B160)</f>
         <v>1</v>
       </c>
-      <c r="E160">
+      <c r="F160">
         <f>COUNTIF(TimeStamps[Done],B160)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" s="10">
         <f t="shared" si="3"/>
         <v>41243</v>
@@ -51479,15 +51424,19 @@
         <v>48</v>
       </c>
       <c r="D161">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E161">
         <f>COUNTIF(TimeStamps[Committed],B161)</f>
         <v>0</v>
       </c>
-      <c r="E161">
+      <c r="F161">
         <f>COUNTIF(TimeStamps[Done],B161)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B162" s="10">
         <f t="shared" si="3"/>
         <v>41244</v>
@@ -51497,15 +51446,19 @@
         <v>48</v>
       </c>
       <c r="D162">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E162">
         <f>COUNTIF(TimeStamps[Committed],B162)</f>
         <v>0</v>
       </c>
-      <c r="E162">
+      <c r="F162">
         <f>COUNTIF(TimeStamps[Done],B162)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163" s="10">
         <f t="shared" si="3"/>
         <v>41245</v>
@@ -51515,15 +51468,19 @@
         <v>49</v>
       </c>
       <c r="D163">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E163">
         <f>COUNTIF(TimeStamps[Committed],B163)</f>
         <v>0</v>
       </c>
-      <c r="E163">
+      <c r="F163">
         <f>COUNTIF(TimeStamps[Done],B163)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164" s="10">
         <f t="shared" si="3"/>
         <v>41246</v>
@@ -51533,15 +51490,19 @@
         <v>49</v>
       </c>
       <c r="D164">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E164">
         <f>COUNTIF(TimeStamps[Committed],B164)</f>
         <v>0</v>
       </c>
-      <c r="E164">
+      <c r="F164">
         <f>COUNTIF(TimeStamps[Done],B164)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" s="10">
         <f t="shared" si="3"/>
         <v>41247</v>
@@ -51551,17 +51512,21 @@
         <v>49</v>
       </c>
       <c r="D165">
+        <f>COUNTIF(TimeStamps[Options],Table111115[[#This Row],[Date]])</f>
+        <v>0</v>
+      </c>
+      <c r="E165">
         <f>COUNTIF(TimeStamps[Committed],B165)</f>
         <v>1</v>
       </c>
-      <c r="E165">
+      <c r="F165">
         <f>COUNTIF(TimeStamps[Done],B165)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -51577,10 +51542,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B2:N165"/>
+  <dimension ref="B2:O165"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:N4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51588,7 +51553,7 @@
     <col min="10" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -51616,14 +51581,17 @@
       <c r="K2" t="s">
         <v>128</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="L2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="10">
-        <f>N3</f>
+        <f>O3</f>
         <v>41085</v>
       </c>
       <c r="C3">
@@ -51656,15 +51624,18 @@
       <c r="K3" s="11">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
+      <c r="L3" s="11">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <f>MIN(TimeStamps[[Options]:[Done]])</f>
         <v>41085</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="10">
         <f>B3+1</f>
         <v>41086</v>
@@ -51701,15 +51672,18 @@
         <f>K3+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>0</v>
       </c>
-      <c r="M4" t="s">
+      <c r="L4" s="11">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <f>MAX(TimeStamps[[Options]:[Done]])</f>
         <v>41249</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="10">
         <f t="shared" ref="B5:B68" si="0">B4+1</f>
         <v>41087</v>
@@ -51746,8 +51720,11 @@
         <f>K4+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L5" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="10">
         <f t="shared" si="0"/>
         <v>41088</v>
@@ -51784,8 +51761,11 @@
         <f>K5+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L6" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="10">
         <f t="shared" si="0"/>
         <v>41089</v>
@@ -51822,8 +51802,11 @@
         <f>K6+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L7" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="10">
         <f t="shared" si="0"/>
         <v>41090</v>
@@ -51860,8 +51843,11 @@
         <f>K7+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L8" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="10">
         <f t="shared" si="0"/>
         <v>41091</v>
@@ -51898,8 +51884,11 @@
         <f>K8+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L9" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="10">
         <f t="shared" si="0"/>
         <v>41092</v>
@@ -51936,8 +51925,11 @@
         <f>K9+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L10" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="10">
         <f t="shared" si="0"/>
         <v>41093</v>
@@ -51974,8 +51966,11 @@
         <f>K10+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L11" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="10">
         <f t="shared" si="0"/>
         <v>41094</v>
@@ -52012,8 +52007,11 @@
         <f>K11+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L12" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="10">
         <f t="shared" si="0"/>
         <v>41095</v>
@@ -52050,8 +52048,11 @@
         <f>K12+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L13" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="10">
         <f t="shared" si="0"/>
         <v>41096</v>
@@ -52088,8 +52089,11 @@
         <f>K13+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L14" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="10">
         <f t="shared" si="0"/>
         <v>41097</v>
@@ -52126,8 +52130,11 @@
         <f>K14+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L15" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="10">
         <f t="shared" si="0"/>
         <v>41098</v>
@@ -52164,8 +52171,11 @@
         <f>K15+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="10">
         <f t="shared" si="0"/>
         <v>41099</v>
@@ -52202,8 +52212,11 @@
         <f>K16+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="10">
         <f t="shared" si="0"/>
         <v>41100</v>
@@ -52240,8 +52253,11 @@
         <f>K17+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="10">
         <f t="shared" si="0"/>
         <v>41101</v>
@@ -52278,8 +52294,11 @@
         <f>K18+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="10">
         <f t="shared" si="0"/>
         <v>41102</v>
@@ -52316,8 +52335,11 @@
         <f>K19+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="10">
         <f t="shared" si="0"/>
         <v>41103</v>
@@ -52354,8 +52376,11 @@
         <f>K20+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="10">
         <f t="shared" si="0"/>
         <v>41104</v>
@@ -52392,8 +52417,11 @@
         <f>K21+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="10">
         <f t="shared" si="0"/>
         <v>41105</v>
@@ -52430,8 +52458,11 @@
         <f>K22+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="10">
         <f t="shared" si="0"/>
         <v>41106</v>
@@ -52468,8 +52499,11 @@
         <f>K23+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="10">
         <f t="shared" si="0"/>
         <v>41107</v>
@@ -52506,8 +52540,11 @@
         <f>K24+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="10">
         <f t="shared" si="0"/>
         <v>41108</v>
@@ -52544,8 +52581,11 @@
         <f>K25+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="10">
         <f t="shared" si="0"/>
         <v>41109</v>
@@ -52582,8 +52622,11 @@
         <f>K26+Table1214[[#This Row],[Com/week]]-Table1214[[#This Row],[Done/week]]</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="10">
         <f t="shared" si="0"/>
         <v>41110</v>
@@ -52601,7 +52644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="10">
         <f t="shared" si="0"/>
         <v>41111</v>
@@ -52619,7 +52662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="10">
         <f t="shared" si="0"/>
         <v>41112</v>
@@ -52637,7 +52680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="10">
         <f t="shared" si="0"/>
         <v>41113</v>
@@ -52655,7 +52698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="10">
         <f t="shared" si="0"/>
         <v>41114</v>
@@ -55069,7 +55112,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
